--- a/data/trans_bre/CoTrAQ_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R2-Dificultad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.348518006065232</v>
+        <v>-8.232110864593672</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.851983995460416</v>
+        <v>-2.790638734346199</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.3382582807919088</v>
+        <v>-0.3284723172940961</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.0806411952120583</v>
+        <v>-0.08057096582254261</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.065662949894264</v>
+        <v>7.592246083871188</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.17866277832185</v>
+        <v>13.32465243296156</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.4221890226764181</v>
+        <v>0.4537514129574582</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4634856816943136</v>
+        <v>0.4648075978174001</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8460587155144498</v>
+        <v>0.4105935227502283</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.859049995020128</v>
+        <v>-2.927395689051939</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.02568494577005396</v>
+        <v>0.01819826793765879</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06522795170862568</v>
+        <v>-0.0976286621237529</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.58705844614824</v>
+        <v>13.59235335416717</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.79887027012076</v>
+        <v>11.97768655784522</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.207863223329778</v>
+        <v>1.149759882356464</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4980084258041135</v>
+        <v>0.5271859527443413</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.683448740079696</v>
+        <v>-2.640417130422483</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.057406898669126</v>
+        <v>-1.085027458049528</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2039241114307111</v>
+        <v>-0.2100645034609462</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.06107368318220639</v>
+        <v>-0.05000932572085656</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.686105854431191</v>
+        <v>8.13180449947196</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.57261363018523</v>
+        <v>11.23194968005416</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.8817587127157177</v>
+        <v>0.8875807575473974</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.7073397857385029</v>
+        <v>0.7042375902342219</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.674423554101279</v>
+        <v>-1.686353563070629</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.429269001178488</v>
+        <v>-9.667059131116057</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1854244487527924</v>
+        <v>-0.1886909636284675</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3662333830659515</v>
+        <v>-0.3756808341891205</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.20044986471457</v>
+        <v>11.33345936909721</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.458376018774019</v>
+        <v>6.191206617145109</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.922707225058063</v>
+        <v>1.779459204410455</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3557741922512558</v>
+        <v>0.3314764563840749</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8604427611150365</v>
+        <v>0.6578292155706984</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7763069035181775</v>
+        <v>0.9643711516356487</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.05834196021605103</v>
+        <v>0.04318539589840623</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.0289938747037303</v>
+        <v>0.03730341972418674</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.216421578554108</v>
+        <v>7.329329830354939</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.15160277211603</v>
+        <v>8.152339788594345</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.6235933951611481</v>
+        <v>0.6194569459503668</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.3572106027960354</v>
+        <v>0.3596289328095612</v>
       </c>
     </row>
     <row r="19">
